--- a/tests/test_xls/sheet_txns/test_select/test_select_payee/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_payee/expected_result.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -448,7 +448,7 @@
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
   </cols>
@@ -531,7 +531,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43106</v>
+        <v>43104</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" s="3" t="n">
-        <v>-512.9</v>
+        <v>-106.34</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43109</v>
+        <v>43112</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" s="3" t="n">
-        <v>-137.49</v>
+        <v>-492.13</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43136</v>
+        <v>43117</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" s="3" t="n">
-        <v>-533.29</v>
+        <v>-774.5</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,11 +669,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43146</v>
+        <v>43134</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" s="3" t="n">
-        <v>-296.04</v>
+        <v>-526.79</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -705,11 +705,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Memo 20</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
     </row>
@@ -719,11 +715,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43150</v>
+        <v>43167</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -743,7 +739,7 @@
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" s="3" t="n">
-        <v>-377.72</v>
+        <v>-232.11</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -765,11 +761,11 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43151</v>
+        <v>43172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -789,7 +785,7 @@
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" s="3" t="n">
-        <v>-52.04</v>
+        <v>-988.45</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -811,7 +807,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43161</v>
+        <v>43178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -835,7 +831,7 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" s="3" t="n">
-        <v>-769.89</v>
+        <v>-146.69</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -857,7 +853,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43161</v>
+        <v>43182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -881,7 +877,7 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" s="3" t="n">
-        <v>-124.98</v>
+        <v>-484.39</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -893,7 +889,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Memo 14</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43188</v>
+        <v>43230</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" s="3" t="n">
-        <v>-695</v>
+        <v>-534.1799999999999</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -939,7 +939,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Memo 7</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
     </row>
@@ -949,7 +953,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43193</v>
+        <v>43232</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -973,7 +977,7 @@
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" s="3" t="n">
-        <v>-750.86</v>
+        <v>-697.51</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -995,11 +999,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>43197</v>
+        <v>43243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1019,7 +1023,7 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" s="3" t="n">
-        <v>-45.25</v>
+        <v>-362.85</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1041,7 +1045,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>43199</v>
+        <v>43248</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1065,7 +1069,7 @@
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" s="3" t="n">
-        <v>-250.87</v>
+        <v>-770.85</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>43203</v>
+        <v>43250</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1111,7 +1115,7 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" s="3" t="n">
-        <v>-355.24</v>
+        <v>-153.37</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1133,7 +1137,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>43215</v>
+        <v>43252</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1157,7 +1161,7 @@
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" s="3" t="n">
-        <v>-801.61</v>
+        <v>-637.48</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1179,7 +1183,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>43236</v>
+        <v>43261</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1203,7 +1207,7 @@
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" s="3" t="n">
-        <v>-743.71</v>
+        <v>-430.01</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1225,11 +1229,11 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>43255</v>
+        <v>43284</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1249,7 +1253,7 @@
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" s="3" t="n">
-        <v>-31.52</v>
+        <v>-102.78</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1271,7 +1275,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>43277</v>
+        <v>43290</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1295,7 +1299,7 @@
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" s="3" t="n">
-        <v>-172.07</v>
+        <v>-872.16</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1317,7 +1321,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>43285</v>
+        <v>43294</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1341,7 +1345,7 @@
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" s="3" t="n">
-        <v>-680.98</v>
+        <v>-916.29</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1363,11 +1367,11 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>43310</v>
+        <v>43302</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1387,7 +1391,7 @@
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" s="3" t="n">
-        <v>-851.8099999999999</v>
+        <v>-319.88</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1409,11 +1413,11 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>43365</v>
+        <v>43308</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1433,7 +1437,7 @@
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" s="3" t="n">
-        <v>-365.59</v>
+        <v>-152.18</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1455,11 +1459,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>43368</v>
+        <v>43319</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1479,7 +1483,7 @@
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" s="3" t="n">
-        <v>-691.74</v>
+        <v>-769.9400000000001</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1501,11 +1505,11 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>43403</v>
+        <v>43321</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1525,7 +1529,7 @@
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" s="3" t="n">
-        <v>-632.14</v>
+        <v>-918.1799999999999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1547,7 +1551,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>43404</v>
+        <v>43379</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1571,7 +1575,7 @@
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" s="3" t="n">
-        <v>-43.38</v>
+        <v>-937.04</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1593,11 +1597,11 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>43406</v>
+        <v>43382</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1617,7 +1621,7 @@
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" s="3" t="n">
-        <v>-685.3099999999999</v>
+        <v>-679.74</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1629,7 +1633,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Memo 2</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
     </row>
@@ -1639,7 +1647,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>43411</v>
+        <v>43395</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1663,7 +1671,7 @@
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" s="3" t="n">
-        <v>-978.1</v>
+        <v>-978.2</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1685,7 +1693,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>43435</v>
+        <v>43406</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1709,7 +1717,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" s="3" t="n">
-        <v>-390.08</v>
+        <v>-654.65</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1731,11 +1739,11 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>43441</v>
+        <v>43431</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1755,7 +1763,7 @@
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" s="3" t="n">
-        <v>-760.39</v>
+        <v>-643.0700000000001</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1777,11 +1785,11 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>43475</v>
+        <v>43431</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1801,7 +1809,7 @@
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" s="3" t="n">
-        <v>-972.79</v>
+        <v>-423.89</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1823,7 +1831,7 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>43478</v>
+        <v>43439</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1847,7 +1855,7 @@
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" s="3" t="n">
-        <v>-664.0700000000001</v>
+        <v>-497.91</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1869,11 +1877,11 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>43486</v>
+        <v>43443</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1893,7 +1901,7 @@
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" s="3" t="n">
-        <v>-93.20999999999999</v>
+        <v>-491.79</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1915,7 +1923,7 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" s="2" t="n">
-        <v>43520</v>
+        <v>43450</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1939,7 +1947,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" s="3" t="n">
-        <v>-129.39</v>
+        <v>-283.2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1961,11 +1969,11 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" s="2" t="n">
-        <v>43522</v>
+        <v>43454</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1985,7 +1993,7 @@
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" s="3" t="n">
-        <v>-762.83</v>
+        <v>-926.5599999999999</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2007,7 +2015,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" s="2" t="n">
-        <v>43527</v>
+        <v>43482</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2031,7 +2039,7 @@
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" s="3" t="n">
-        <v>-970.12</v>
+        <v>-613.66</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2053,11 +2061,11 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" s="2" t="n">
-        <v>43536</v>
+        <v>43483</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2077,7 +2085,7 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" s="3" t="n">
-        <v>-17.64</v>
+        <v>-424.71</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2099,11 +2107,11 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" s="2" t="n">
-        <v>43564</v>
+        <v>43484</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2123,7 +2131,7 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" s="3" t="n">
-        <v>-620.38</v>
+        <v>-949.37</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2145,11 +2153,11 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" s="2" t="n">
-        <v>43566</v>
+        <v>43494</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2169,7 +2177,7 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" s="3" t="n">
-        <v>-539.33</v>
+        <v>-784.09</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2191,7 +2199,7 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" s="2" t="n">
-        <v>43572</v>
+        <v>43524</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" s="3" t="n">
-        <v>-131.41</v>
+        <v>-985.74</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2237,7 +2245,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" s="2" t="n">
-        <v>43595</v>
+        <v>43535</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2261,7 +2269,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" s="3" t="n">
-        <v>-98.40000000000001</v>
+        <v>-871.35</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2283,7 +2291,7 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" s="2" t="n">
-        <v>43597</v>
+        <v>43535</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2307,7 +2315,7 @@
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" s="3" t="n">
-        <v>-650.33</v>
+        <v>-637.78</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2319,7 +2327,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Memo 4</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2329,11 +2341,11 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" s="2" t="n">
-        <v>43601</v>
+        <v>43537</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2353,7 +2365,7 @@
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" s="3" t="n">
-        <v>-31.32</v>
+        <v>-741.5700000000001</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" s="2" t="n">
-        <v>43602</v>
+        <v>43540</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2399,7 +2411,7 @@
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" s="3" t="n">
-        <v>-770.05</v>
+        <v>-420.17</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2421,7 +2433,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" s="2" t="n">
-        <v>43608</v>
+        <v>43558</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2445,7 +2457,7 @@
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" s="3" t="n">
-        <v>-600.62</v>
+        <v>-503.48</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2467,7 +2479,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" s="2" t="n">
-        <v>43611</v>
+        <v>43573</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2491,7 +2503,7 @@
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" s="3" t="n">
-        <v>-214.71</v>
+        <v>-984.55</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" s="2" t="n">
-        <v>43615</v>
+        <v>43573</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2537,7 +2549,7 @@
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" s="3" t="n">
-        <v>-193.41</v>
+        <v>-636.5</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2559,7 +2571,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" s="2" t="n">
-        <v>43627</v>
+        <v>43576</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2583,7 +2595,7 @@
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" s="3" t="n">
-        <v>-125.77</v>
+        <v>-627.25</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2605,7 +2617,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" s="2" t="n">
-        <v>43640</v>
+        <v>43587</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2629,7 +2641,7 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" s="3" t="n">
-        <v>-528.83</v>
+        <v>-272.95</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" s="2" t="n">
-        <v>43641</v>
+        <v>43588</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2675,7 +2687,7 @@
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" s="3" t="n">
-        <v>-402.97</v>
+        <v>-287.86</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2697,7 +2709,7 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" s="2" t="n">
-        <v>43646</v>
+        <v>43589</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2721,7 +2733,7 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" s="3" t="n">
-        <v>-384.72</v>
+        <v>-37.85</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2743,11 +2755,11 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" s="2" t="n">
-        <v>43660</v>
+        <v>43603</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2767,7 +2779,7 @@
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" s="3" t="n">
-        <v>-458.03</v>
+        <v>423.59</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2779,7 +2791,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Refund of 04/03/2019</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2789,7 +2805,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" s="2" t="n">
-        <v>43728</v>
+        <v>43631</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2813,7 +2829,7 @@
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" s="3" t="n">
-        <v>-466.6</v>
+        <v>-49.49</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2835,11 +2851,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" s="2" t="n">
-        <v>43733</v>
+        <v>43633</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2859,7 +2875,7 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" s="3" t="n">
-        <v>-492.21</v>
+        <v>-684.6799999999999</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2881,11 +2897,11 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" s="2" t="n">
-        <v>43736</v>
+        <v>43634</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2905,7 +2921,7 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" s="3" t="n">
-        <v>-236.18</v>
+        <v>-251.64</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2927,7 +2943,7 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" s="2" t="n">
-        <v>43738</v>
+        <v>43659</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2951,7 +2967,7 @@
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" s="3" t="n">
-        <v>-484.01</v>
+        <v>-909.22</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2973,11 +2989,11 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" s="2" t="n">
-        <v>43746</v>
+        <v>43664</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2997,7 +3013,7 @@
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" s="3" t="n">
-        <v>-354.79</v>
+        <v>-778.66</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3019,11 +3035,11 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" s="2" t="n">
-        <v>43751</v>
+        <v>43669</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3043,7 +3059,7 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" s="3" t="n">
-        <v>-384.39</v>
+        <v>-228.89</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3055,7 +3071,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Memo 12</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
     </row>
@@ -3065,7 +3085,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" s="2" t="n">
-        <v>43753</v>
+        <v>43675</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3089,7 +3109,7 @@
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" s="3" t="n">
-        <v>-270.97</v>
+        <v>-354.8</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3111,7 +3131,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" s="2" t="n">
-        <v>43756</v>
+        <v>43675</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3135,7 +3155,7 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" s="3" t="n">
-        <v>-981.13</v>
+        <v>-740.55</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3157,11 +3177,11 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" s="2" t="n">
-        <v>43768</v>
+        <v>43702</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3181,7 +3201,7 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" s="3" t="n">
-        <v>-704.74</v>
+        <v>-689.26</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3203,7 +3223,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" s="2" t="n">
-        <v>43772</v>
+        <v>43719</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3227,7 +3247,7 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" s="3" t="n">
-        <v>-759.77</v>
+        <v>-297.2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3249,7 +3269,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" s="2" t="n">
-        <v>43782</v>
+        <v>43721</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3273,7 +3293,7 @@
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" s="3" t="n">
-        <v>-165.85</v>
+        <v>-893.73</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3295,11 +3315,11 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" s="2" t="n">
-        <v>43806</v>
+        <v>43732</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3319,7 +3339,7 @@
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" s="3" t="n">
-        <v>-237.49</v>
+        <v>-581.21</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3341,7 +3361,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" s="2" t="n">
-        <v>43813</v>
+        <v>43741</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3365,7 +3385,7 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" s="3" t="n">
-        <v>-695.04</v>
+        <v>-131.76</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3387,11 +3407,11 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" s="2" t="n">
-        <v>43826</v>
+        <v>43751</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3411,7 +3431,7 @@
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" s="3" t="n">
-        <v>-901.83</v>
+        <v>-16.65</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3433,11 +3453,11 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" s="2" t="n">
-        <v>43841</v>
+        <v>43754</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3457,7 +3477,7 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" s="3" t="n">
-        <v>-981.38</v>
+        <v>-610.62</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3479,7 +3499,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" s="2" t="n">
-        <v>43849</v>
+        <v>43772</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3503,7 +3523,7 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" s="3" t="n">
-        <v>-844.6799999999999</v>
+        <v>-167.66</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3525,7 +3545,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" s="2" t="n">
-        <v>43863</v>
+        <v>43774</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3549,7 +3569,7 @@
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" s="3" t="n">
-        <v>-792.72</v>
+        <v>-218.89</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3571,11 +3591,11 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" s="2" t="n">
-        <v>43873</v>
+        <v>43800</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3595,7 +3615,7 @@
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" s="3" t="n">
-        <v>-535.6900000000001</v>
+        <v>-325.22</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3617,11 +3637,11 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" s="2" t="n">
-        <v>43882</v>
+        <v>43826</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3641,7 +3661,7 @@
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" s="3" t="n">
-        <v>-92.86</v>
+        <v>-127.42</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3663,7 +3683,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" s="2" t="n">
-        <v>43885</v>
+        <v>43830</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3687,7 +3707,7 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" s="3" t="n">
-        <v>-166.58</v>
+        <v>-237.83</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3709,7 +3729,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" s="2" t="n">
-        <v>43890</v>
+        <v>43831</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3733,7 +3753,7 @@
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" s="3" t="n">
-        <v>-551.7</v>
+        <v>-871.16</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3755,7 +3775,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" s="2" t="n">
-        <v>43906</v>
+        <v>43841</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3779,7 +3799,7 @@
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" s="3" t="n">
-        <v>-451.77</v>
+        <v>475.08</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3791,7 +3811,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Refund of 10/16/2019</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
     </row>
@@ -3801,7 +3825,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" s="2" t="n">
-        <v>43917</v>
+        <v>43852</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3825,7 +3849,7 @@
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" s="3" t="n">
-        <v>-221.11</v>
+        <v>-774.45</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3847,7 +3871,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" s="2" t="n">
-        <v>43921</v>
+        <v>43857</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3871,7 +3895,7 @@
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" s="3" t="n">
-        <v>-142.72</v>
+        <v>-499.48</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3893,11 +3917,11 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" s="2" t="n">
-        <v>43923</v>
+        <v>43862</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3917,7 +3941,7 @@
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" s="3" t="n">
-        <v>-503.02</v>
+        <v>-635.61</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3939,7 +3963,7 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" s="2" t="n">
-        <v>43927</v>
+        <v>43879</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3963,7 +3987,7 @@
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" s="3" t="n">
-        <v>-311.11</v>
+        <v>-921.08</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3985,11 +4009,11 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" s="2" t="n">
-        <v>43966</v>
+        <v>43893</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4009,7 +4033,7 @@
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" s="3" t="n">
-        <v>-883.8200000000001</v>
+        <v>-248.93</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4031,7 +4055,7 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>43972</v>
+        <v>43914</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4055,7 +4079,7 @@
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" s="3" t="n">
-        <v>-536.8200000000001</v>
+        <v>-631.49</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4077,7 +4101,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>43975</v>
+        <v>43922</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4101,7 +4125,7 @@
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" s="3" t="n">
-        <v>-991.78</v>
+        <v>-496.5</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4123,11 +4147,11 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4147,7 +4171,7 @@
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" s="3" t="n">
-        <v>-641.08</v>
+        <v>-6.27</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4169,11 +4193,11 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>44014</v>
+        <v>43927</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4193,7 +4217,7 @@
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" s="3" t="n">
-        <v>-974.79</v>
+        <v>-123.84</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4215,11 +4239,11 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>44031</v>
+        <v>43929</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4239,7 +4263,7 @@
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" s="3" t="n">
-        <v>-192.8</v>
+        <v>-117.43</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4261,11 +4285,11 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>44041</v>
+        <v>43935</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4285,7 +4309,7 @@
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" s="3" t="n">
-        <v>-845.23</v>
+        <v>-552.38</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -4297,7 +4321,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Memo 14</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
     </row>
@@ -4307,11 +4335,11 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>44046</v>
+        <v>43959</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4331,7 +4359,7 @@
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" s="3" t="n">
-        <v>-468.26</v>
+        <v>-910.7</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4353,11 +4381,11 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>44064</v>
+        <v>43960</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4377,7 +4405,7 @@
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" s="3" t="n">
-        <v>-590.5599999999999</v>
+        <v>-339.06</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4399,11 +4427,11 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" s="2" t="n">
-        <v>44078</v>
+        <v>43978</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4423,7 +4451,7 @@
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" s="3" t="n">
-        <v>-121.14</v>
+        <v>-832.14</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4445,7 +4473,7 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" s="2" t="n">
-        <v>44090</v>
+        <v>43984</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4469,7 +4497,7 @@
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" s="3" t="n">
-        <v>-624.95</v>
+        <v>-237.85</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4491,11 +4519,11 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" s="2" t="n">
-        <v>44120</v>
+        <v>44001</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4515,7 +4543,7 @@
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" s="3" t="n">
-        <v>-895.33</v>
+        <v>-638.9</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4537,11 +4565,11 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" s="2" t="n">
-        <v>44136</v>
+        <v>44003</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4561,7 +4589,7 @@
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" s="3" t="n">
-        <v>-369.94</v>
+        <v>-789.58</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4583,7 +4611,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" s="2" t="n">
-        <v>44167</v>
+        <v>44020</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4607,7 +4635,7 @@
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" s="3" t="n">
-        <v>-164.37</v>
+        <v>-55.89</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4629,11 +4657,11 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" s="2" t="n">
-        <v>44169</v>
+        <v>44026</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4653,7 +4681,7 @@
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" s="3" t="n">
-        <v>-969.6900000000001</v>
+        <v>-336.13</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4675,7 +4703,7 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" s="2" t="n">
-        <v>44187</v>
+        <v>44030</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -4699,7 +4727,7 @@
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" s="3" t="n">
-        <v>-368.04</v>
+        <v>-72.77</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4713,7 +4741,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Memo 5</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -4725,7 +4753,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" s="2" t="n">
-        <v>44187</v>
+        <v>44039</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4749,7 +4777,7 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" s="3" t="n">
-        <v>-862.41</v>
+        <v>-521.84</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4771,11 +4799,11 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" s="2" t="n">
-        <v>44207</v>
+        <v>44042</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4795,7 +4823,7 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" s="3" t="n">
-        <v>-944.04</v>
+        <v>-230.92</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4817,7 +4845,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" s="2" t="n">
-        <v>44212</v>
+        <v>44047</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4841,7 +4869,7 @@
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" s="3" t="n">
-        <v>-926.2</v>
+        <v>-546.23</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4863,7 +4891,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" s="2" t="n">
-        <v>44230</v>
+        <v>44058</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -4887,7 +4915,7 @@
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" s="3" t="n">
-        <v>-30.93</v>
+        <v>-938.75</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4909,11 +4937,11 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" s="2" t="n">
-        <v>44231</v>
+        <v>44061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4933,7 +4961,7 @@
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" s="3" t="n">
-        <v>-499.98</v>
+        <v>-510.48</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4955,7 +4983,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" s="2" t="n">
-        <v>44234</v>
+        <v>44094</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -4979,7 +5007,7 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" s="3" t="n">
-        <v>-929.17</v>
+        <v>-254.55</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5001,7 +5029,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" s="2" t="n">
-        <v>44250</v>
+        <v>44102</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5025,7 +5053,7 @@
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" s="3" t="n">
-        <v>-811.85</v>
+        <v>-995.45</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -5047,11 +5075,11 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" s="2" t="n">
-        <v>44257</v>
+        <v>44102</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5071,7 +5099,7 @@
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" s="3" t="n">
-        <v>-688.64</v>
+        <v>-311.7</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5093,7 +5121,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" s="2" t="n">
-        <v>44259</v>
+        <v>44108</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5117,7 +5145,7 @@
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" s="3" t="n">
-        <v>-97.45999999999999</v>
+        <v>-54.08</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -5139,7 +5167,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" s="2" t="n">
-        <v>44271</v>
+        <v>44108</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5163,7 +5191,7 @@
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" s="3" t="n">
-        <v>-874.67</v>
+        <v>-513.51</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5185,11 +5213,11 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" s="2" t="n">
-        <v>44275</v>
+        <v>44114</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5209,7 +5237,7 @@
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" s="3" t="n">
-        <v>-953.83</v>
+        <v>-879.36</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5231,7 +5259,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" s="2" t="n">
-        <v>44284</v>
+        <v>44139</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -5255,7 +5283,7 @@
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" s="3" t="n">
-        <v>-600.9</v>
+        <v>-567.9</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5277,7 +5305,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" s="2" t="n">
-        <v>44290</v>
+        <v>44141</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -5301,7 +5329,7 @@
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" s="3" t="n">
-        <v>-291.44</v>
+        <v>-369.23</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -5323,7 +5351,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" s="2" t="n">
-        <v>44332</v>
+        <v>44143</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -5347,7 +5375,7 @@
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" s="3" t="n">
-        <v>-563.66</v>
+        <v>-972.01</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5359,11 +5387,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Memo 14</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
     </row>
@@ -5373,11 +5397,11 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" s="2" t="n">
-        <v>44333</v>
+        <v>44158</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5397,7 +5421,7 @@
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" s="3" t="n">
-        <v>-194.42</v>
+        <v>-163.01</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -5419,7 +5443,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" s="2" t="n">
-        <v>44333</v>
+        <v>44180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -5443,7 +5467,7 @@
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" s="3" t="n">
-        <v>-234.48</v>
+        <v>-728.7</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5465,11 +5489,11 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" s="2" t="n">
-        <v>44335</v>
+        <v>44183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5489,7 +5513,7 @@
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" s="3" t="n">
-        <v>-988.83</v>
+        <v>-500.43</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5511,7 +5535,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" s="2" t="n">
-        <v>44342</v>
+        <v>44186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5535,7 +5559,7 @@
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" s="3" t="n">
-        <v>-261.24</v>
+        <v>-421.1</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5557,11 +5581,11 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" s="2" t="n">
-        <v>44348</v>
+        <v>44197</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5581,7 +5605,7 @@
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" s="3" t="n">
-        <v>-320.65</v>
+        <v>-231.6</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -5603,11 +5627,11 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" s="2" t="n">
-        <v>44349</v>
+        <v>44200</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5627,7 +5651,7 @@
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" s="3" t="n">
-        <v>-808.71</v>
+        <v>-992.61</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -5649,11 +5673,11 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" s="2" t="n">
-        <v>44391</v>
+        <v>44203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5673,7 +5697,7 @@
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" s="3" t="n">
-        <v>-627.03</v>
+        <v>-734.5700000000001</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5695,7 +5719,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" s="2" t="n">
-        <v>44394</v>
+        <v>44217</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -5719,7 +5743,7 @@
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" s="3" t="n">
-        <v>-431.85</v>
+        <v>-554.96</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5741,7 +5765,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" s="2" t="n">
-        <v>44397</v>
+        <v>44226</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -5765,7 +5789,7 @@
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" s="3" t="n">
-        <v>-308.04</v>
+        <v>-497.44</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5787,11 +5811,11 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" s="2" t="n">
-        <v>44405</v>
+        <v>44241</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5811,7 +5835,7 @@
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" s="3" t="n">
-        <v>-385.31</v>
+        <v>-967.8099999999999</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5833,7 +5857,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" s="2" t="n">
-        <v>44411</v>
+        <v>44249</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -5857,7 +5881,7 @@
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" s="3" t="n">
-        <v>-684.78</v>
+        <v>-940.51</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5879,11 +5903,11 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" s="2" t="n">
-        <v>44414</v>
+        <v>44261</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5903,7 +5927,7 @@
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" s="3" t="n">
-        <v>-302.5</v>
+        <v>-201.96</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5925,11 +5949,11 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" s="2" t="n">
-        <v>44417</v>
+        <v>44273</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5949,7 +5973,7 @@
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" s="3" t="n">
-        <v>-669.54</v>
+        <v>-831.1900000000001</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5971,7 +5995,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" s="2" t="n">
-        <v>44417</v>
+        <v>44277</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -5995,7 +6019,7 @@
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" s="3" t="n">
-        <v>-528.53</v>
+        <v>-345.11</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -6017,7 +6041,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" s="2" t="n">
-        <v>44431</v>
+        <v>44280</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -6041,7 +6065,7 @@
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" s="3" t="n">
-        <v>-139.88</v>
+        <v>-26.26</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6063,7 +6087,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" s="2" t="n">
-        <v>44438</v>
+        <v>44284</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -6087,7 +6111,7 @@
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" s="3" t="n">
-        <v>-827.49</v>
+        <v>-542.86</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6109,11 +6133,11 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" s="2" t="n">
-        <v>44457</v>
+        <v>44306</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6133,7 +6157,7 @@
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" s="3" t="n">
-        <v>-567.05</v>
+        <v>-793.0700000000001</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -6155,7 +6179,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" s="2" t="n">
-        <v>44466</v>
+        <v>44306</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -6179,7 +6203,7 @@
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" s="3" t="n">
-        <v>-940.98</v>
+        <v>-490.72</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -6201,11 +6225,11 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" s="2" t="n">
-        <v>44475</v>
+        <v>44330</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6225,7 +6249,7 @@
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" s="3" t="n">
-        <v>-985.72</v>
+        <v>-430.83</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6247,11 +6271,11 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" s="2" t="n">
-        <v>44479</v>
+        <v>44338</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6271,7 +6295,7 @@
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" s="3" t="n">
-        <v>-326.31</v>
+        <v>-716.33</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -6293,7 +6317,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" s="2" t="n">
-        <v>44531</v>
+        <v>44343</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -6317,7 +6341,7 @@
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" s="3" t="n">
-        <v>-391.04</v>
+        <v>-153.98</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6339,11 +6363,11 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" s="2" t="n">
-        <v>44532</v>
+        <v>44347</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6363,7 +6387,7 @@
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" s="3" t="n">
-        <v>-500.94</v>
+        <v>-905.55</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -6385,11 +6409,11 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" s="2" t="n">
-        <v>44540</v>
+        <v>44349</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6409,7 +6433,7 @@
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" s="3" t="n">
-        <v>-309.52</v>
+        <v>-616.96</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6431,11 +6455,11 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" s="2" t="n">
-        <v>44541</v>
+        <v>44349</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6455,7 +6479,7 @@
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" s="3" t="n">
-        <v>-321.74</v>
+        <v>-34.63</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6477,7 +6501,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" s="2" t="n">
-        <v>44548</v>
+        <v>44364</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -6501,7 +6525,7 @@
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" s="3" t="n">
-        <v>-790.54</v>
+        <v>-885.91</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6523,11 +6547,11 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" s="2" t="n">
-        <v>44567</v>
+        <v>44380</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6547,7 +6571,7 @@
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" s="3" t="n">
-        <v>-445.09</v>
+        <v>-999.92</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -6569,11 +6593,11 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" s="2" t="n">
-        <v>44588</v>
+        <v>44381</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6593,7 +6617,7 @@
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" s="3" t="n">
-        <v>-673.76</v>
+        <v>-979.77</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -6615,11 +6639,11 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" s="2" t="n">
-        <v>44593</v>
+        <v>44396</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6639,7 +6663,7 @@
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" s="3" t="n">
-        <v>-682.09</v>
+        <v>-171.39</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -6661,7 +6685,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" s="2" t="n">
-        <v>44630</v>
+        <v>44396</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -6685,7 +6709,7 @@
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" s="3" t="n">
-        <v>-234.45</v>
+        <v>-470.22</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -6707,7 +6731,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" s="2" t="n">
-        <v>44634</v>
+        <v>44405</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -6731,7 +6755,7 @@
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" s="3" t="n">
-        <v>-870.22</v>
+        <v>-105.25</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -6753,7 +6777,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" s="2" t="n">
-        <v>44636</v>
+        <v>44408</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -6777,7 +6801,7 @@
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" s="3" t="n">
-        <v>-811.47</v>
+        <v>-863.37</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -6799,11 +6823,11 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" s="2" t="n">
-        <v>44645</v>
+        <v>44410</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6823,7 +6847,7 @@
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" s="3" t="n">
-        <v>-856.51</v>
+        <v>-947.17</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -6845,11 +6869,11 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" s="2" t="n">
-        <v>44650</v>
+        <v>44416</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6869,7 +6893,7 @@
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" s="3" t="n">
-        <v>-226.95</v>
+        <v>-70.05</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -6891,11 +6915,11 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" s="2" t="n">
-        <v>44652</v>
+        <v>44426</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6915,7 +6939,7 @@
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" s="3" t="n">
-        <v>-937.24</v>
+        <v>-200.52</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6937,7 +6961,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" s="2" t="n">
-        <v>44655</v>
+        <v>44438</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -6961,7 +6985,7 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" s="3" t="n">
-        <v>-692.51</v>
+        <v>-598.25</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6983,11 +7007,11 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" s="2" t="n">
-        <v>44658</v>
+        <v>44454</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7007,7 +7031,7 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" s="3" t="n">
-        <v>-708.67</v>
+        <v>-751.8200000000001</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7029,7 +7053,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" s="2" t="n">
-        <v>44663</v>
+        <v>44458</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -7053,7 +7077,7 @@
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" s="3" t="n">
-        <v>-317.81</v>
+        <v>-334.29</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -7075,11 +7099,11 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" s="2" t="n">
-        <v>44669</v>
+        <v>44468</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7099,7 +7123,7 @@
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" s="3" t="n">
-        <v>-215.12</v>
+        <v>-138.88</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7121,7 +7145,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" s="2" t="n">
-        <v>44673</v>
+        <v>44482</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -7145,7 +7169,7 @@
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" s="3" t="n">
-        <v>-242.91</v>
+        <v>-154.63</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7167,7 +7191,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" s="2" t="n">
-        <v>44679</v>
+        <v>44486</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -7191,7 +7215,7 @@
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" s="3" t="n">
-        <v>-109.98</v>
+        <v>-269.35</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -7213,11 +7237,11 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" s="2" t="n">
-        <v>44685</v>
+        <v>44497</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7237,7 +7261,7 @@
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" s="3" t="n">
-        <v>-607.04</v>
+        <v>-895.3200000000001</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -7259,11 +7283,11 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" s="2" t="n">
-        <v>44690</v>
+        <v>44500</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7283,7 +7307,7 @@
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" s="3" t="n">
-        <v>-113.18</v>
+        <v>-393.55</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -7305,11 +7329,11 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" s="2" t="n">
-        <v>44691</v>
+        <v>44513</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7329,7 +7353,7 @@
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" s="3" t="n">
-        <v>-403.42</v>
+        <v>-345.86</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -7351,7 +7375,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" s="2" t="n">
-        <v>44700</v>
+        <v>44513</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -7375,7 +7399,7 @@
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" s="3" t="n">
-        <v>-721.1</v>
+        <v>-347.13</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -7397,7 +7421,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" s="2" t="n">
-        <v>44708</v>
+        <v>44530</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -7421,7 +7445,7 @@
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" s="3" t="n">
-        <v>-267.22</v>
+        <v>-654.79</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -7433,7 +7457,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Memo 13</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
     </row>
@@ -7443,7 +7471,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" s="2" t="n">
-        <v>44709</v>
+        <v>44537</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -7467,7 +7495,7 @@
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" s="3" t="n">
-        <v>-712.27</v>
+        <v>-902.49</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -7489,11 +7517,11 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" s="2" t="n">
-        <v>44715</v>
+        <v>44538</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7513,7 +7541,7 @@
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" s="3" t="n">
-        <v>-497.64</v>
+        <v>-986.66</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -7535,7 +7563,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" s="2" t="n">
-        <v>44727</v>
+        <v>44538</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -7559,7 +7587,7 @@
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" s="3" t="n">
-        <v>-293.83</v>
+        <v>-481.95</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7571,11 +7599,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Memo 7</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
     </row>
@@ -7585,11 +7609,11 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" s="2" t="n">
-        <v>44731</v>
+        <v>44544</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7609,7 +7633,7 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" s="3" t="n">
-        <v>-66.09999999999999</v>
+        <v>-793.01</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -7631,11 +7655,11 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" s="2" t="n">
-        <v>44732</v>
+        <v>44550</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -7655,7 +7679,7 @@
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" s="3" t="n">
-        <v>-643.05</v>
+        <v>-756.05</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -7677,7 +7701,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" s="2" t="n">
-        <v>44747</v>
+        <v>44573</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -7701,7 +7725,7 @@
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" s="3" t="n">
-        <v>-603.41</v>
+        <v>-723</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -7723,11 +7747,11 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" s="2" t="n">
-        <v>44772</v>
+        <v>44578</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7747,7 +7771,7 @@
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" s="3" t="n">
-        <v>-5.97</v>
+        <v>-213.86</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -7769,11 +7793,11 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" s="2" t="n">
-        <v>44791</v>
+        <v>44584</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -7793,7 +7817,7 @@
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" s="3" t="n">
-        <v>-435.72</v>
+        <v>-859.72</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -7815,11 +7839,11 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" s="2" t="n">
-        <v>44792</v>
+        <v>44603</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7839,7 +7863,7 @@
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" s="3" t="n">
-        <v>-442.71</v>
+        <v>793.01</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -7851,7 +7875,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Refund of 12/14/2021</t>
+        </is>
+      </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
     </row>
@@ -7861,7 +7889,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" s="2" t="n">
-        <v>44800</v>
+        <v>44609</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -7885,7 +7913,7 @@
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" s="3" t="n">
-        <v>-590.75</v>
+        <v>-862.42</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -7907,7 +7935,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" s="2" t="n">
-        <v>44822</v>
+        <v>44631</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -7931,7 +7959,7 @@
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" s="3" t="n">
-        <v>-613.84</v>
+        <v>-811.4</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -7953,11 +7981,11 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" s="2" t="n">
-        <v>44835</v>
+        <v>44634</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7977,7 +8005,7 @@
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" s="3" t="n">
-        <v>-228.43</v>
+        <v>-11.03</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -7989,11 +8017,7 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Memo 4</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
     </row>
@@ -8003,11 +8027,11 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" s="2" t="n">
-        <v>44863</v>
+        <v>44636</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8027,7 +8051,7 @@
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" s="3" t="n">
-        <v>-736.2</v>
+        <v>-510.93</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -8049,7 +8073,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" s="2" t="n">
-        <v>44879</v>
+        <v>44643</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -8073,7 +8097,7 @@
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" s="3" t="n">
-        <v>-474.11</v>
+        <v>-747.5700000000001</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8095,11 +8119,11 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" s="2" t="n">
-        <v>44880</v>
+        <v>44646</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8119,7 +8143,7 @@
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" s="3" t="n">
-        <v>-279.7</v>
+        <v>-233.16</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -8141,11 +8165,11 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" s="2" t="n">
-        <v>44895</v>
+        <v>44651</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8165,7 +8189,7 @@
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" s="3" t="n">
-        <v>-57.24</v>
+        <v>-16.61</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -8187,7 +8211,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" s="2" t="n">
-        <v>44916</v>
+        <v>44659</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -8211,7 +8235,7 @@
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" s="3" t="n">
-        <v>-569.14</v>
+        <v>-221.73</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -8223,7 +8247,11 @@
           <t>Discretionary</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
     </row>
@@ -8233,7 +8261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" s="2" t="n">
-        <v>44917</v>
+        <v>44676</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -8257,7 +8285,7 @@
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" s="3" t="n">
-        <v>-215.98</v>
+        <v>-870.29</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -8272,6 +8300,1206 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" s="3" t="n">
+        <v>-696.8</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" s="3" t="n">
+        <v>-552.09</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" s="3" t="n">
+        <v>-772.8099999999999</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" s="3" t="n">
+        <v>-134.3</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" s="2" t="n">
+        <v>44765</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" s="3" t="n">
+        <v>-672.4299999999999</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" s="3" t="n">
+        <v>-822.58</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" s="3" t="n">
+        <v>-357.16</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" s="3" t="n">
+        <v>-271.76</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" s="3" t="n">
+        <v>-53.99</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" s="3" t="n">
+        <v>-735.62</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" s="3" t="n">
+        <v>-949.34</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" s="3" t="n">
+        <v>-558.33</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" s="3" t="n">
+        <v>-624.25</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" s="3" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" s="3" t="n">
+        <v>-550.5</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" s="3" t="n">
+        <v>-444.9</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" s="2" t="n">
+        <v>44849</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" s="3" t="n">
+        <v>-249.19</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" s="3" t="n">
+        <v>-28.29</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" s="3" t="n">
+        <v>-219.74</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" s="3" t="n">
+        <v>-447.43</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" s="3" t="n">
+        <v>271.76</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Refund of 08/23/2022</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" s="3" t="n">
+        <v>-539.38</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" s="3" t="n">
+        <v>-351.44</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" s="3" t="n">
+        <v>-938.05</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" s="2" t="n">
+        <v>44917</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Visa</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" s="3" t="n">
+        <v>-937.83</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Mastercard</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" s="3" t="n">
+        <v>-178.71</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
